--- a/排桌.xlsx
+++ b/排桌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenchen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0202DB8B-F5AB-0C43-A728-46AB16492B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACB240B-25EC-FE47-9239-E7C80B594C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15860" xr2:uid="{A7689F09-9266-074F-9630-28324A969896}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -488,22 +488,22 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="F2" s="1">
         <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>6</v>
       </c>
       <c r="G2" s="1">
         <v>7</v>
